--- a/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="306">
   <si>
     <t>Open</t>
   </si>
@@ -402,9 +402,6 @@
     <t>Endoplasmic Reticulum Stress in Diseases</t>
   </si>
   <si>
-    <t>Electrochemical Water Processing</t>
-  </si>
-  <si>
     <t>Flame Retardancy and Thermal Stability of Materials</t>
   </si>
   <si>
@@ -843,9 +840,6 @@
     <t>CC-BY</t>
   </si>
   <si>
-    <t>2169-0375</t>
-  </si>
-  <si>
     <t>1097-3702</t>
   </si>
   <si>
@@ -867,9 +861,6 @@
     <t>2512-6660</t>
   </si>
   <si>
-    <t>1337-2211</t>
-  </si>
-  <si>
     <t>2365-242X</t>
   </si>
   <si>
@@ -882,9 +873,6 @@
     <t>1303-829X</t>
   </si>
   <si>
-    <t>Advanced Nonlinear Studies</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hugoye: Journal of Syriac Studies </t>
   </si>
   <si>
@@ -906,9 +894,6 @@
     <t>Journal of Systems Science and Information</t>
   </si>
   <si>
-    <t>Mathematica Slovaca</t>
-  </si>
-  <si>
     <t>Pharmaceutical Technology in Hospital Pharmacy</t>
   </si>
   <si>
@@ -921,9 +906,6 @@
     <t>Turkish Journal of Biochemistry</t>
   </si>
   <si>
-    <t>https://www.degruyter.com/ans</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/hug</t>
   </si>
   <si>
@@ -943,9 +925,6 @@
   </si>
   <si>
     <t>https://www.degruyter.com/jssi</t>
-  </si>
-  <si>
-    <t>https://www.degruyter.com/ms</t>
   </si>
   <si>
     <t>https://www.degruyter.com/pthp</t>
@@ -1008,7 +987,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1016,14 +995,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1066,10 +1037,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G101" totalsRowShown="0" headerRowDxfId="3">
-  <autoFilter ref="A1:G101"/>
-  <sortState ref="A2:G208">
-    <sortCondition sortBy="cellColor" ref="B1:B208" dxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G98"/>
+  <sortState ref="A2:G101">
+    <sortCondition ref="D1:D101"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1347,7 +1318,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:G98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,13 +1361,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
         <v>187</v>
@@ -1405,7 +1376,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1413,22 +1384,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="E3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1436,13 +1404,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
         <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" t="s">
         <v>189</v>
@@ -1451,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1459,22 +1427,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1482,19 +1450,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1511,13 +1482,13 @@
         <v>105</v>
       </c>
       <c r="E7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1525,13 +1496,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
         <v>193</v>
@@ -1540,7 +1511,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1548,22 +1519,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E9" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1571,22 +1539,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1594,10 +1562,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E11" t="s">
         <v>196</v>
@@ -1606,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1614,22 +1585,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="E12" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1637,22 +1608,22 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
         <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1660,22 +1631,22 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1683,22 +1654,22 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1706,22 +1677,22 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E16" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1729,22 +1700,22 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E17" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1752,22 +1723,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="E18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1775,22 +1746,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C19" t="s">
         <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E19" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1798,22 +1769,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="E20" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1821,22 +1792,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1844,22 +1815,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E22" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1867,22 +1838,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1890,22 +1861,22 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="E24" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1913,22 +1884,22 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E25" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1936,22 +1907,22 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>36</v>
       </c>
       <c r="D26" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="E26" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1959,22 +1930,19 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>284</v>
       </c>
       <c r="E27" t="s">
-        <v>212</v>
+        <v>295</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1982,22 +1950,22 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="C28" t="s">
         <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2005,19 +1973,19 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="D29" t="s">
-        <v>127</v>
+        <v>285</v>
+      </c>
+      <c r="E29" t="s">
+        <v>296</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2025,22 +1993,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>36</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2048,22 +2016,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C31" t="s">
         <v>36</v>
       </c>
       <c r="D31" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E31" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2071,22 +2039,19 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="D32" t="s">
-        <v>130</v>
+        <v>286</v>
       </c>
       <c r="E32" t="s">
-        <v>216</v>
+        <v>297</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2094,22 +2059,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="D33" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="E33" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2117,22 +2079,19 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="D34" t="s">
-        <v>132</v>
+        <v>288</v>
       </c>
       <c r="E34" t="s">
-        <v>218</v>
+        <v>299</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2140,22 +2099,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="D35" t="s">
-        <v>133</v>
+        <v>289</v>
       </c>
       <c r="E35" t="s">
-        <v>219</v>
+        <v>300</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2163,22 +2119,22 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C36" t="s">
         <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E36" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2186,22 +2142,22 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
         <v>36</v>
       </c>
       <c r="D37" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E37" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2209,22 +2165,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C38" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="D38" t="s">
-        <v>136</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2232,22 +2185,22 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
         <v>36</v>
       </c>
       <c r="D39" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E39" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2255,22 +2208,22 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
         <v>36</v>
       </c>
       <c r="D40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E40" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2278,22 +2231,22 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C41" t="s">
         <v>36</v>
       </c>
       <c r="D41" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E41" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2301,22 +2254,22 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
         <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E42" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2324,22 +2277,22 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C43" t="s">
         <v>36</v>
       </c>
       <c r="D43" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E43" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2347,22 +2300,22 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C44" t="s">
         <v>36</v>
       </c>
       <c r="D44" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="E44" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2370,22 +2323,22 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C45" t="s">
         <v>36</v>
       </c>
       <c r="D45" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="E45" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2393,22 +2346,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
         <v>36</v>
       </c>
       <c r="D46" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E46" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,22 +2369,22 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C47" t="s">
         <v>36</v>
       </c>
       <c r="D47" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="E47" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,22 +2392,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
         <v>36</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2468,16 +2421,16 @@
         <v>36</v>
       </c>
       <c r="D49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E49" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,22 +2438,22 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>36</v>
       </c>
       <c r="D50" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2508,22 +2461,22 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C51" t="s">
         <v>36</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2531,22 +2484,22 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C52" t="s">
         <v>36</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E52" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2554,22 +2507,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="D53" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E53" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2577,22 +2530,22 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C54" t="s">
         <v>36</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E54" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2600,22 +2553,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="C55" t="s">
         <v>36</v>
       </c>
       <c r="D55" t="s">
-        <v>153</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>239</v>
+        <v>192</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2623,22 +2576,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>21</v>
       </c>
       <c r="C56" t="s">
         <v>36</v>
       </c>
       <c r="D56" t="s">
-        <v>154</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2646,22 +2599,22 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>25</v>
       </c>
       <c r="C57" t="s">
         <v>36</v>
       </c>
       <c r="D57" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
-        <v>241</v>
+        <v>202</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2669,22 +2622,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="D58" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2692,22 +2645,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C59" t="s">
         <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E59" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2715,22 +2668,22 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
+        <v>32</v>
       </c>
       <c r="C60" t="s">
         <v>36</v>
       </c>
       <c r="D60" t="s">
-        <v>158</v>
+        <v>123</v>
       </c>
       <c r="E60" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2738,22 +2691,22 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
         <v>36</v>
       </c>
       <c r="D61" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E61" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2761,22 +2714,22 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="C62" t="s">
         <v>36</v>
       </c>
       <c r="D62" t="s">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>246</v>
+        <v>214</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2784,22 +2737,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C63" t="s">
         <v>36</v>
       </c>
       <c r="D63" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E63" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2807,22 +2760,22 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="C64" t="s">
         <v>36</v>
       </c>
       <c r="D64" t="s">
-        <v>162</v>
+        <v>108</v>
       </c>
       <c r="E64" t="s">
-        <v>248</v>
+        <v>194</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2830,22 +2783,22 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C65" t="s">
         <v>36</v>
       </c>
       <c r="D65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E65" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2853,22 +2806,22 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C66" t="s">
         <v>36</v>
       </c>
       <c r="D66" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E66" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2876,22 +2829,22 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="C67" t="s">
         <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E67" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2899,22 +2852,22 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="C68" t="s">
         <v>36</v>
       </c>
       <c r="D68" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="E68" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2922,22 +2875,22 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C69" t="s">
         <v>36</v>
       </c>
       <c r="D69" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="E69" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2945,22 +2898,22 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C70" t="s">
         <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E70" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,22 +2921,22 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C71" t="s">
         <v>36</v>
       </c>
       <c r="D71" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2991,22 +2944,22 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C72" t="s">
         <v>36</v>
       </c>
       <c r="D72" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E72" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3014,22 +2967,22 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C73" t="s">
         <v>36</v>
       </c>
       <c r="D73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E73" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,22 +2990,22 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C74" t="s">
         <v>36</v>
       </c>
       <c r="D74" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="E74" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3060,22 +3013,22 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C75" t="s">
         <v>36</v>
       </c>
       <c r="D75" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E75" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3083,22 +3036,22 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
         <v>36</v>
       </c>
       <c r="D76" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="E76" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3106,19 +3059,22 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="C77" t="s">
+        <v>36</v>
       </c>
       <c r="D77" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="E77" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3126,22 +3082,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
         <v>36</v>
       </c>
       <c r="D78" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="E78" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3149,22 +3105,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C79" t="s">
         <v>36</v>
       </c>
       <c r="D79" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E79" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3172,22 +3128,19 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
-      </c>
-      <c r="C80" t="s">
-        <v>36</v>
+        <v>280</v>
       </c>
       <c r="D80" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3195,22 +3148,22 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="D81" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3218,22 +3171,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C82" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="D82" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3241,22 +3194,19 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>90</v>
-      </c>
-      <c r="C83" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="D83" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="E83" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3264,22 +3214,22 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C84" t="s">
         <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3287,22 +3237,22 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C85" t="s">
         <v>36</v>
       </c>
       <c r="D85" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3310,22 +3260,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>93</v>
-      </c>
-      <c r="C86" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="D86" t="s">
-        <v>184</v>
+        <v>292</v>
       </c>
       <c r="E86" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3333,22 +3280,22 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C87" t="s">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="D87" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3356,22 +3303,22 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="D88" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E88" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3379,19 +3326,22 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>89</v>
+      </c>
+      <c r="C89" t="s">
+        <v>36</v>
       </c>
       <c r="D89" t="s">
-        <v>287</v>
+        <v>179</v>
       </c>
       <c r="E89" t="s">
-        <v>300</v>
+        <v>265</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3399,19 +3349,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="D90" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="E90" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3419,19 +3369,22 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>36</v>
       </c>
       <c r="D91" t="s">
-        <v>289</v>
+        <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>302</v>
+        <v>222</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3439,19 +3392,22 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>91</v>
+      </c>
+      <c r="C92" t="s">
+        <v>36</v>
       </c>
       <c r="D92" t="s">
-        <v>290</v>
+        <v>181</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
+        <v>267</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3459,19 +3415,22 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>92</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
       </c>
       <c r="D93" t="s">
-        <v>291</v>
+        <v>182</v>
       </c>
       <c r="E93" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3479,10 +3438,10 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D94" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E94" t="s">
         <v>305</v>
@@ -3491,7 +3450,7 @@
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3499,19 +3458,22 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>60</v>
+      </c>
+      <c r="C95" t="s">
+        <v>96</v>
       </c>
       <c r="D95" t="s">
-        <v>293</v>
+        <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>306</v>
+        <v>236</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,19 +3481,22 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>93</v>
+      </c>
+      <c r="C96" t="s">
+        <v>36</v>
       </c>
       <c r="D96" t="s">
-        <v>294</v>
+        <v>183</v>
       </c>
       <c r="E96" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,19 +3504,22 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>282</v>
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
       </c>
       <c r="D97" t="s">
-        <v>295</v>
+        <v>185</v>
       </c>
       <c r="E97" t="s">
-        <v>308</v>
+        <v>271</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3559,79 +3527,22 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>283</v>
+        <v>94</v>
+      </c>
+      <c r="C98" t="s">
+        <v>98</v>
       </c>
       <c r="D98" t="s">
-        <v>296</v>
+        <v>184</v>
       </c>
       <c r="E98" t="s">
-        <v>309</v>
+        <v>270</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>8</v>
-      </c>
-      <c r="B99" t="s">
-        <v>284</v>
-      </c>
-      <c r="D99" t="s">
-        <v>297</v>
-      </c>
-      <c r="E99" t="s">
-        <v>310</v>
-      </c>
-      <c r="F99" t="s">
-        <v>0</v>
-      </c>
-      <c r="G99" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>8</v>
-      </c>
-      <c r="B100" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" t="s">
-        <v>298</v>
-      </c>
-      <c r="E100" t="s">
-        <v>311</v>
-      </c>
-      <c r="F100" t="s">
-        <v>0</v>
-      </c>
-      <c r="G100" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>8</v>
-      </c>
-      <c r="B101" t="s">
-        <v>286</v>
-      </c>
-      <c r="D101" t="s">
-        <v>299</v>
-      </c>
-      <c r="E101" t="s">
-        <v>312</v>
-      </c>
-      <c r="F101" t="s">
-        <v>0</v>
-      </c>
-      <c r="G101" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>

--- a/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="326">
   <si>
     <t>Open</t>
   </si>
@@ -69,18 +69,12 @@
     <t>2543-6376</t>
   </si>
   <si>
-    <t>2299-3932</t>
-  </si>
-  <si>
     <t>2391-5412</t>
   </si>
   <si>
     <t>1868-503X</t>
   </si>
   <si>
-    <t>2300-3669</t>
-  </si>
-  <si>
     <t>2364-5504</t>
   </si>
   <si>
@@ -102,9 +96,6 @@
     <t>2299-3282</t>
   </si>
   <si>
-    <t>2084-6819</t>
-  </si>
-  <si>
     <t>2569-3263</t>
   </si>
   <si>
@@ -132,15 +123,9 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>2391-5404</t>
-  </si>
-  <si>
     <t>2391-5447</t>
   </si>
   <si>
-    <t>2353-3382</t>
-  </si>
-  <si>
     <t>2191-9550</t>
   </si>
   <si>
@@ -159,15 +144,9 @@
     <t>2191-0243</t>
   </si>
   <si>
-    <t>2379-2892</t>
-  </si>
-  <si>
     <t>2081-9943</t>
   </si>
   <si>
-    <t>2164-6295</t>
-  </si>
-  <si>
     <t>2196-9663</t>
   </si>
   <si>
@@ -180,18 +159,12 @@
     <t>2353-3390</t>
   </si>
   <si>
-    <t>2353-6438</t>
-  </si>
-  <si>
     <t>2391-5463</t>
   </si>
   <si>
     <t>2191-0219</t>
   </si>
   <si>
-    <t>2300-4258</t>
-  </si>
-  <si>
     <t>2353-0626</t>
   </si>
   <si>
@@ -216,9 +189,6 @@
     <t>2191-9097</t>
   </si>
   <si>
-    <t>2084-8862</t>
-  </si>
-  <si>
     <t>2391-9531</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>2543-8042</t>
   </si>
   <si>
-    <t>2299-3177</t>
-  </si>
-  <si>
     <t>2451-1781</t>
   </si>
   <si>
@@ -276,18 +243,12 @@
     <t>2195-4720</t>
   </si>
   <si>
-    <t>2299-114X</t>
-  </si>
-  <si>
     <t>1605-8127</t>
   </si>
   <si>
     <t>2191-0359</t>
   </si>
   <si>
-    <t>2194-8313</t>
-  </si>
-  <si>
     <t>2300-7451</t>
   </si>
   <si>
@@ -312,9 +273,6 @@
     <t>1433-7266</t>
   </si>
   <si>
-    <t>2194-8305</t>
-  </si>
-  <si>
     <t>0721-9067</t>
   </si>
   <si>
@@ -342,18 +300,12 @@
     <t>Open Astronomy</t>
   </si>
   <si>
-    <t>Biomedical Glasses</t>
-  </si>
-  <si>
     <t xml:space="preserve">Open Life Sciences </t>
   </si>
   <si>
     <t>Biomolecular Concepts</t>
   </si>
   <si>
-    <t>Change and Adaptation in Socio-Ecological Systems</t>
-  </si>
-  <si>
     <t>Current Directions in Biomedical Engineering</t>
   </si>
   <si>
@@ -375,9 +327,6 @@
     <t>Concrete Operators</t>
   </si>
   <si>
-    <t>Catalysis for Sustainable Energy</t>
-  </si>
-  <si>
     <t>Chemistry Teacher International</t>
   </si>
   <si>
@@ -402,15 +351,9 @@
     <t>Endoplasmic Reticulum Stress in Diseases</t>
   </si>
   <si>
-    <t>Flame Retardancy and Thermal Stability of Materials</t>
-  </si>
-  <si>
     <t>Open Geosciences</t>
   </si>
   <si>
-    <t>Geometric Flows</t>
-  </si>
-  <si>
     <t>Green Processing and Synthesis</t>
   </si>
   <si>
@@ -429,15 +372,9 @@
     <t>Journal of the Mechanical Behavior of Materials</t>
   </si>
   <si>
-    <t>The Journal of Natural Gas Engineering</t>
-  </si>
-  <si>
     <t>Journal of Geodetic Science</t>
   </si>
   <si>
-    <t>Journal of Sustainable Energy Engineering</t>
-  </si>
-  <si>
     <t>Journal of Social Ontology</t>
   </si>
   <si>
@@ -450,18 +387,12 @@
     <t>Mathematical Morphology - Theory and Applications</t>
   </si>
   <si>
-    <t>Mathematics of Climate and Weather Forecasting</t>
-  </si>
-  <si>
     <t>Open Medicine</t>
   </si>
   <si>
     <t>Main Group Metal Chemistry</t>
   </si>
   <si>
-    <t>Non-coding RNAs in Endocrinology</t>
-  </si>
-  <si>
     <t>Nonautonomous Dynamical Systems</t>
   </si>
   <si>
@@ -486,9 +417,6 @@
     <t>Nanotechnology Reviews</t>
   </si>
   <si>
-    <t>Optical Data Processing and Storage</t>
-  </si>
-  <si>
     <t>Open Agriculture</t>
   </si>
   <si>
@@ -507,9 +435,6 @@
     <t>Open Political Science</t>
   </si>
   <si>
-    <t>Organic Photonics and Photovoltaics</t>
-  </si>
-  <si>
     <t>Open Information Science</t>
   </si>
   <si>
@@ -546,18 +471,12 @@
     <t>Pteridines</t>
   </si>
   <si>
-    <t>Quantum Measurements and Quantum Metrology</t>
-  </si>
-  <si>
     <t>REVIEWS ON ADVANCED MATERIALS SCIENCE</t>
   </si>
   <si>
     <t xml:space="preserve">Science and Engineering of Composite Materials </t>
   </si>
   <si>
-    <t>Pragmática Sociocultural / Sociocultural Pragmatics</t>
-  </si>
-  <si>
     <t>Special Matrices</t>
   </si>
   <si>
@@ -600,18 +519,12 @@
     <t>http://www.degruyter.com/view/j/astro</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/bglass</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/biol</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1515/bmc</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/cass</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/cdbme</t>
   </si>
   <si>
@@ -633,9 +546,6 @@
     <t>http://www.degruyter.com/view/j/conop</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/cse</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/cti</t>
   </si>
   <si>
@@ -660,15 +570,9 @@
     <t>http://www.degruyter.com/view/j/ersc</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/flret</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/geo</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/geofl</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/gps</t>
   </si>
   <si>
@@ -687,15 +591,9 @@
     <t>http://dx.doi.org/10.1515/jmbm</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/jnge</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/jogs</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/josee</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/jso</t>
   </si>
   <si>
@@ -708,18 +606,12 @@
     <t>http://www.degruyter.com/view/j/mathm</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/mcwf</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/med</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1515/mgmc</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/micrnado</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/msds</t>
   </si>
   <si>
@@ -744,9 +636,6 @@
     <t>http://www.degruyter.com/view/j/ntrev</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/odps</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/opag</t>
   </si>
   <si>
@@ -765,9 +654,6 @@
     <t>http://www.degruyter.com/view/j/openps</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/oph</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/opis</t>
   </si>
   <si>
@@ -804,18 +690,12 @@
     <t>http://www.degruyter.com/view/j/pteridines</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/qmetro</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/rams</t>
   </si>
   <si>
     <t>http://dx.doi.org/10.1515/secm</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/soprag</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/spma</t>
   </si>
   <si>
@@ -867,9 +747,6 @@
     <t>2191-0189</t>
   </si>
   <si>
-    <t>2364-933X</t>
-  </si>
-  <si>
     <t>1303-829X</t>
   </si>
   <si>
@@ -900,9 +777,6 @@
     <t>Reviews in Analytical Chemistry</t>
   </si>
   <si>
-    <t>Südosteuropa</t>
-  </si>
-  <si>
     <t>Turkish Journal of Biochemistry</t>
   </si>
   <si>
@@ -933,10 +807,196 @@
     <t>https://www.degruyter.com/revac</t>
   </si>
   <si>
-    <t>https://www.degruyter.com/soeu</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/tjb</t>
+  </si>
+  <si>
+    <t>2192-8959</t>
+  </si>
+  <si>
+    <t>Case Reports in Perinatal Medicine</t>
+  </si>
+  <si>
+    <t>http://www.degruyter.com/view/j/crpm</t>
+  </si>
+  <si>
+    <t>2329-8766</t>
+  </si>
+  <si>
+    <t>Energy Harvesting and Systems</t>
+  </si>
+  <si>
+    <t>http://www.degruyter.com/view/j/ehs</t>
+  </si>
+  <si>
+    <t>2169-0375</t>
+  </si>
+  <si>
+    <t>Advanced Nonlinear Studies</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/journal/key/ANS/html</t>
+  </si>
+  <si>
+    <t>2568-9347</t>
+  </si>
+  <si>
+    <t>2196-5633</t>
+  </si>
+  <si>
+    <t>2747-7460</t>
+  </si>
+  <si>
+    <t>2747-7487</t>
+  </si>
+  <si>
+    <t>2701-8202</t>
+  </si>
+  <si>
+    <t>2747-5093</t>
+  </si>
+  <si>
+    <t>1864-6042</t>
+  </si>
+  <si>
+    <t>2300-3545</t>
+  </si>
+  <si>
+    <t>2747-7479</t>
+  </si>
+  <si>
+    <t>2748-3479</t>
+  </si>
+  <si>
+    <t>2747-7576</t>
+  </si>
+  <si>
+    <t>2702-3648</t>
+  </si>
+  <si>
+    <t>2169-8260</t>
+  </si>
+  <si>
+    <t>1019-8288</t>
+  </si>
+  <si>
+    <t>2747-9749</t>
+  </si>
+  <si>
+    <t>1544-9826</t>
+  </si>
+  <si>
+    <t>2084-7203</t>
+  </si>
+  <si>
+    <t>2719-4523</t>
+  </si>
+  <si>
+    <t>2198-0330</t>
+  </si>
+  <si>
+    <t>Analysis of Current Trends in Antisemitism - ACTA</t>
+  </si>
+  <si>
+    <t>China Finance and Economic Review</t>
+  </si>
+  <si>
+    <t>Chinese and Arab Studies</t>
+  </si>
+  <si>
+    <t>Chinese Journal of Slavic Studies</t>
+  </si>
+  <si>
+    <t>Comparative Southeast European Studies</t>
+  </si>
+  <si>
+    <t>Dimensions</t>
+  </si>
+  <si>
+    <t>Economics.  The Open-Access, Open-Assessment Journal</t>
+  </si>
+  <si>
+    <t>Electrochemical Energy Technology</t>
+  </si>
+  <si>
+    <t>Interacción sino-iberoamericana/Sino-Ibero American Interaction</t>
+  </si>
+  <si>
+    <t>Journal of China Computer-Assisted Language Learning</t>
+  </si>
+  <si>
+    <t>Journal of Cultural Interaction in East Asia</t>
+  </si>
+  <si>
+    <t>Journal of Osteopathic Medicine</t>
+  </si>
+  <si>
+    <t>Journal of World Languages</t>
+  </si>
+  <si>
+    <t>KRITERION – Journal of Philosophy</t>
+  </si>
+  <si>
+    <t>National Medical Review</t>
+  </si>
+  <si>
+    <t>Open Health</t>
+  </si>
+  <si>
+    <t>Peptidomics</t>
+  </si>
+  <si>
+    <t>Rheumatology and Immunology Research</t>
+  </si>
+  <si>
+    <t>Zeitschrift für interkulturelle Germanistik</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/actap</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/chem</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/caas</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/cls</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/spma</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/dema</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/edu</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/ehs</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/jib</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/jso</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/krt</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1515/jlm</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/noise</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/openms</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/phw</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/sai</t>
   </si>
 </sst>
 </file>
@@ -987,7 +1047,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="7">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -995,6 +1055,38 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1037,10 +1129,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G98" totalsRowShown="0" headerRowDxfId="2">
-  <autoFilter ref="A1:G98"/>
-  <sortState ref="A2:G101">
-    <sortCondition ref="D1:D101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G106" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:G106"/>
+  <sortState ref="A2:G106">
+    <sortCondition ref="D1:D106"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -1318,7 +1410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G98"/>
+  <dimension ref="A1:G106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1361,22 +1453,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="D2" t="s">
-        <v>101</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>271</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1384,19 +1473,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1404,22 +1496,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1427,22 +1516,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E5" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1450,22 +1539,22 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1473,22 +1562,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
+        <v>272</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>291</v>
       </c>
       <c r="E7" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1496,22 +1582,22 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E8" t="s">
-        <v>193</v>
+        <v>161</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1519,19 +1605,22 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1539,22 +1628,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E10" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,22 +1648,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" t="s">
-        <v>36</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,22 +1668,22 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="E12" t="s">
-        <v>205</v>
+        <v>175</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1608,22 +1691,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+        <v>273</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>292</v>
       </c>
       <c r="E13" t="s">
-        <v>201</v>
+        <v>311</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,22 +1711,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>36</v>
+        <v>274</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>312</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1654,22 +1731,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>36</v>
+        <v>275</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>294</v>
       </c>
       <c r="E15" t="s">
-        <v>203</v>
+        <v>313</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1677,22 +1751,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
+        <v>276</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>295</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>314</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1703,19 +1774,19 @@
         <v>22</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1723,22 +1794,22 @@
         <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="E18" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1746,22 +1817,22 @@
         <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E19" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1769,22 +1840,22 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E20" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,22 +1863,22 @@
         <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>211</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1815,22 +1886,22 @@
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="E22" t="s">
-        <v>213</v>
+        <v>177</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1838,22 +1909,22 @@
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E23" t="s">
-        <v>215</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1861,22 +1932,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+        <v>277</v>
       </c>
       <c r="D24" t="s">
-        <v>130</v>
+        <v>296</v>
       </c>
       <c r="E24" t="s">
-        <v>216</v>
+        <v>315</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1884,22 +1952,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C25" t="s">
-        <v>36</v>
+        <v>278</v>
       </c>
       <c r="D25" t="s">
-        <v>131</v>
+        <v>297</v>
       </c>
       <c r="E25" t="s">
-        <v>217</v>
+        <v>316</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1907,22 +1972,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
+        <v>279</v>
       </c>
       <c r="D26" t="s">
-        <v>132</v>
+        <v>298</v>
       </c>
       <c r="E26" t="s">
-        <v>218</v>
+        <v>317</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1930,19 +1992,22 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>273</v>
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>284</v>
+        <v>109</v>
       </c>
       <c r="E27" t="s">
-        <v>295</v>
+        <v>182</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1950,22 +2015,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" t="s">
-        <v>36</v>
+        <v>266</v>
       </c>
       <c r="D28" t="s">
-        <v>133</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1973,19 +2035,22 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>31</v>
+      </c>
+      <c r="C29" t="s">
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>285</v>
+        <v>108</v>
       </c>
       <c r="E29" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1993,22 +2058,22 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="E30" t="s">
-        <v>223</v>
+        <v>184</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2016,22 +2081,22 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E31" t="s">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2039,19 +2104,22 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>37</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>286</v>
+        <v>113</v>
       </c>
       <c r="E32" t="s">
-        <v>297</v>
+        <v>186</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2059,19 +2127,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>233</v>
       </c>
       <c r="D33" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="E33" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2079,19 +2147,22 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>288</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>187</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2099,19 +2170,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D35" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="E35" t="s">
-        <v>300</v>
+        <v>224</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2119,22 +2190,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
+        <v>234</v>
       </c>
       <c r="D36" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="E36" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2142,22 +2210,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>36</v>
+        <v>281</v>
       </c>
       <c r="D37" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="E37" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,19 +2230,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2185,22 +2250,22 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2208,22 +2273,22 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="E40" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2231,22 +2296,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="D41" t="s">
-        <v>145</v>
+        <v>245</v>
       </c>
       <c r="E41" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2254,22 +2316,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" t="s">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="D42" t="s">
-        <v>142</v>
+        <v>246</v>
       </c>
       <c r="E42" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2277,22 +2336,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
-      </c>
-      <c r="C43" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="D43" t="s">
-        <v>143</v>
+        <v>247</v>
       </c>
       <c r="E43" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2300,22 +2356,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
-      </c>
-      <c r="C44" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="D44" t="s">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="E44" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2323,22 +2376,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" t="s">
-        <v>36</v>
+        <v>283</v>
       </c>
       <c r="D45" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="E45" t="s">
-        <v>235</v>
+        <v>319</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2346,22 +2396,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>154</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>240</v>
+        <v>191</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2369,22 +2419,19 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>62</v>
-      </c>
-      <c r="C47" t="s">
-        <v>36</v>
+        <v>239</v>
       </c>
       <c r="D47" t="s">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="E47" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2392,22 +2439,22 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D48" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="E48" t="s">
-        <v>233</v>
+        <v>189</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2415,22 +2462,22 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="C49" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2438,22 +2485,19 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>303</v>
       </c>
       <c r="E50" t="s">
-        <v>237</v>
+        <v>320</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2461,22 +2505,19 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="D51" t="s">
-        <v>153</v>
+        <v>304</v>
       </c>
       <c r="E51" t="s">
-        <v>239</v>
+        <v>321</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2484,22 +2525,22 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C52" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>156</v>
+        <v>123</v>
       </c>
       <c r="E52" t="s">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2507,22 +2548,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C53" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>157</v>
+        <v>121</v>
       </c>
       <c r="E53" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2530,22 +2571,22 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="C54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2553,22 +2594,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="E55" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2576,22 +2617,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C56" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="E56" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2599,22 +2640,19 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
-      </c>
-      <c r="C57" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="D57" t="s">
-        <v>116</v>
+        <v>305</v>
       </c>
       <c r="E57" t="s">
-        <v>202</v>
+        <v>322</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2622,22 +2660,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="C58" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2645,22 +2683,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C59" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="E59" t="s">
-        <v>245</v>
+        <v>197</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2668,22 +2706,22 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="C60" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="E60" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2691,22 +2729,22 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="C61" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E61" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2714,22 +2752,22 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="C62" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2737,22 +2775,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>249</v>
+        <v>206</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2760,22 +2798,22 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="E64" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,22 +2821,22 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>164</v>
+        <v>92</v>
       </c>
       <c r="E65" t="s">
-        <v>250</v>
+        <v>165</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2806,22 +2844,22 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>75</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>165</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>251</v>
+        <v>169</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2829,22 +2867,22 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>141</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>227</v>
+        <v>173</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2852,22 +2890,22 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="C68" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="E68" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2875,22 +2913,22 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="C69" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>160</v>
+        <v>135</v>
       </c>
       <c r="E69" t="s">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2898,22 +2936,22 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>166</v>
+        <v>106</v>
       </c>
       <c r="E70" t="s">
-        <v>252</v>
+        <v>179</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2921,22 +2959,22 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C71" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>256</v>
+        <v>180</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2944,22 +2982,22 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C72" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="E72" t="s">
-        <v>247</v>
+        <v>183</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -2967,22 +3005,19 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
-      </c>
-      <c r="C73" t="s">
-        <v>36</v>
+        <v>287</v>
       </c>
       <c r="D73" t="s">
-        <v>173</v>
+        <v>306</v>
       </c>
       <c r="E73" t="s">
-        <v>259</v>
+        <v>323</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -2990,22 +3025,22 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>180</v>
+        <v>138</v>
       </c>
       <c r="E74" t="s">
-        <v>266</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,22 +3048,22 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>167</v>
+        <v>93</v>
       </c>
       <c r="E75" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3036,22 +3071,22 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="E76" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,22 +3094,22 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="E77" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3082,22 +3117,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="C78" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>162</v>
+        <v>120</v>
       </c>
       <c r="E78" t="s">
-        <v>248</v>
+        <v>193</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3105,22 +3140,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>81</v>
+        <v>46</v>
       </c>
       <c r="C79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>171</v>
+        <v>122</v>
       </c>
       <c r="E79" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3128,19 +3163,22 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>280</v>
+        <v>60</v>
+      </c>
+      <c r="C80" t="s">
+        <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="E80" t="s">
-        <v>302</v>
+        <v>209</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3148,22 +3186,22 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="C81" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="E81" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,22 +3209,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="C82" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>178</v>
+        <v>145</v>
       </c>
       <c r="E82" t="s">
-        <v>264</v>
+        <v>218</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3194,19 +3232,22 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>84</v>
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="E83" t="s">
-        <v>260</v>
+        <v>210</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3214,22 +3255,22 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="E84" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3237,22 +3278,22 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C85" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="E85" t="s">
-        <v>261</v>
+        <v>226</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3260,19 +3301,22 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>281</v>
+        <v>66</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="E86" t="s">
-        <v>303</v>
+        <v>215</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3280,22 +3324,22 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C87" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D87" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3303,22 +3347,22 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="C88" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E88" t="s">
-        <v>263</v>
+        <v>219</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3326,22 +3370,19 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>89</v>
-      </c>
-      <c r="C89" t="s">
-        <v>36</v>
+        <v>288</v>
       </c>
       <c r="D89" t="s">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>324</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3349,19 +3390,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="D90" t="s">
-        <v>293</v>
+        <v>250</v>
       </c>
       <c r="E90" t="s">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3369,22 +3410,22 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C91" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="E91" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3392,22 +3433,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
-      </c>
-      <c r="C92" t="s">
-        <v>36</v>
+        <v>73</v>
       </c>
       <c r="D92" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="E92" t="s">
-        <v>267</v>
+        <v>222</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3415,22 +3453,22 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="C93" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>182</v>
+        <v>144</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>217</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3438,19 +3476,19 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>283</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>261</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3458,22 +3496,22 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="D95" t="s">
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3481,22 +3519,19 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>93</v>
-      </c>
-      <c r="C96" t="s">
-        <v>36</v>
+        <v>289</v>
       </c>
       <c r="D96" t="s">
-        <v>183</v>
+        <v>308</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3504,22 +3539,22 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="C97" t="s">
-        <v>99</v>
+        <v>33</v>
       </c>
       <c r="D97" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>224</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>272</v>
+        <v>232</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3527,27 +3562,205 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
-        <v>98</v>
+        <v>33</v>
       </c>
       <c r="D98" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="E98" t="s">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>272</v>
+        <v>232</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>8</v>
+      </c>
+      <c r="B99" t="s">
+        <v>78</v>
+      </c>
+      <c r="C99" t="s">
+        <v>33</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>227</v>
+      </c>
+      <c r="F99" t="s">
+        <v>0</v>
+      </c>
+      <c r="G99" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>8</v>
+      </c>
+      <c r="B100" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" t="s">
+        <v>33</v>
+      </c>
+      <c r="D100" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" t="s">
+        <v>228</v>
+      </c>
+      <c r="F100" t="s">
+        <v>0</v>
+      </c>
+      <c r="G100" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>8</v>
+      </c>
+      <c r="B101" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101" t="s">
+        <v>262</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>8</v>
+      </c>
+      <c r="B102" t="s">
+        <v>290</v>
+      </c>
+      <c r="D102" t="s">
+        <v>309</v>
+      </c>
+      <c r="E102" t="s">
+        <v>231</v>
+      </c>
+      <c r="F102" t="s">
+        <v>0</v>
+      </c>
+      <c r="G102" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" t="s">
+        <v>83</v>
+      </c>
+      <c r="D103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
+        <v>0</v>
+      </c>
+      <c r="G103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>8</v>
+      </c>
+      <c r="B104" t="s">
+        <v>80</v>
+      </c>
+      <c r="C104" t="s">
+        <v>33</v>
+      </c>
+      <c r="D104" t="s">
+        <v>156</v>
+      </c>
+      <c r="E104" t="s">
+        <v>229</v>
+      </c>
+      <c r="F104" t="s">
+        <v>0</v>
+      </c>
+      <c r="G104" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>8</v>
+      </c>
+      <c r="B105" t="s">
+        <v>82</v>
+      </c>
+      <c r="C105" t="s">
+        <v>85</v>
+      </c>
+      <c r="D105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>231</v>
+      </c>
+      <c r="F105" t="s">
+        <v>0</v>
+      </c>
+      <c r="G105" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>8</v>
+      </c>
+      <c r="B106" t="s">
+        <v>81</v>
+      </c>
+      <c r="C106" t="s">
+        <v>84</v>
+      </c>
+      <c r="D106" t="s">
+        <v>157</v>
+      </c>
+      <c r="E106" t="s">
+        <v>230</v>
+      </c>
+      <c r="F106" t="s">
+        <v>0</v>
+      </c>
+      <c r="G106" t="s">
+        <v>232</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_2A830853D38270106A6CB1D9A84071AE7AE981AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7EA6B4D-7E5D-4B0F-8839-A6BB93BDE0B3}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="707" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="344">
   <si>
     <t>Open</t>
   </si>
@@ -147,18 +148,12 @@
     <t>2081-9943</t>
   </si>
   <si>
-    <t>2196-9663</t>
-  </si>
-  <si>
     <t>2568-2407</t>
   </si>
   <si>
     <t>2391-5455</t>
   </si>
   <si>
-    <t>2353-3390</t>
-  </si>
-  <si>
     <t>2391-5463</t>
   </si>
   <si>
@@ -375,18 +370,12 @@
     <t>Journal of Geodetic Science</t>
   </si>
   <si>
-    <t>Journal of Social Ontology</t>
-  </si>
-  <si>
     <t>Journal of Transition Medicine</t>
   </si>
   <si>
     <t>Open Mathematics</t>
   </si>
   <si>
-    <t>Mathematical Morphology - Theory and Applications</t>
-  </si>
-  <si>
     <t>Open Medicine</t>
   </si>
   <si>
@@ -594,18 +583,12 @@
     <t>http://www.degruyter.com/view/j/jogs</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/jso</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/jtm</t>
   </si>
   <si>
     <t>http://www.degruyter.com/view/j/math</t>
   </si>
   <si>
-    <t>http://www.degruyter.com/view/j/mathm</t>
-  </si>
-  <si>
     <t>http://www.degruyter.com/view/j/med</t>
   </si>
   <si>
@@ -738,9 +721,6 @@
     <t>1862-2984</t>
   </si>
   <si>
-    <t>2512-6660</t>
-  </si>
-  <si>
     <t>2365-242X</t>
   </si>
   <si>
@@ -768,9 +748,6 @@
     <t>Journal of Mathematical Cryptology</t>
   </si>
   <si>
-    <t>Journal of Systems Science and Information</t>
-  </si>
-  <si>
     <t>Pharmaceutical Technology in Hospital Pharmacy</t>
   </si>
   <si>
@@ -798,9 +775,6 @@
     <t>https://www.degruyter.com/jmc</t>
   </si>
   <si>
-    <t>https://www.degruyter.com/jssi</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/pthp</t>
   </si>
   <si>
@@ -876,12 +850,6 @@
     <t>2169-8260</t>
   </si>
   <si>
-    <t>1019-8288</t>
-  </si>
-  <si>
-    <t>2747-9749</t>
-  </si>
-  <si>
     <t>1544-9826</t>
   </si>
   <si>
@@ -936,9 +904,6 @@
     <t>KRITERION – Journal of Philosophy</t>
   </si>
   <si>
-    <t>National Medical Review</t>
-  </si>
-  <si>
     <t>Open Health</t>
   </si>
   <si>
@@ -987,9 +952,6 @@
     <t>http://dx.doi.org/10.1515/jlm</t>
   </si>
   <si>
-    <t>https://www.degruyter.com/noise</t>
-  </si>
-  <si>
     <t>https://www.degruyter.com/openms</t>
   </si>
   <si>
@@ -997,12 +959,105 @@
   </si>
   <si>
     <t>https://www.degruyter.com/sai</t>
+  </si>
+  <si>
+    <t>2750-977X</t>
+  </si>
+  <si>
+    <t>2751-0069</t>
+  </si>
+  <si>
+    <t>Asian Journal of Medical Humanities</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/ajmedh</t>
+  </si>
+  <si>
+    <t>2749-9030</t>
+  </si>
+  <si>
+    <t>Eastern European Holocaust Studies</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/eehs</t>
+  </si>
+  <si>
+    <t>2747-7495</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interkulturelles Forum der deutsch-chinesischen Kommunikation </t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/ifdck</t>
+  </si>
+  <si>
+    <t>2751-0166</t>
+  </si>
+  <si>
+    <t>International Confucian Studies</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/icos</t>
+  </si>
+  <si>
+    <t>2747-5271</t>
+  </si>
+  <si>
+    <t>Journal of Digital History</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/jdh</t>
+  </si>
+  <si>
+    <t>2749-4799</t>
+  </si>
+  <si>
+    <t>Journal of Transcultural Communication</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/jtc</t>
+  </si>
+  <si>
+    <t>2749-9642</t>
+  </si>
+  <si>
+    <t>Medical Review</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/mr</t>
+  </si>
+  <si>
+    <t>2750-6665</t>
+  </si>
+  <si>
+    <t>NeuroImmune Pharmacology and Therapeutics</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/nipt</t>
+  </si>
+  <si>
+    <t>2749-9049</t>
+  </si>
+  <si>
+    <t>Online Media and Global Communication</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/omgc</t>
+  </si>
+  <si>
+    <t>2510-2648</t>
+  </si>
+  <si>
+    <t>SIRIUS – Zeitschrift für Strategische Analysen</t>
+  </si>
+  <si>
+    <t>https://www.degruyter.com/sirius</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1047,57 +1102,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC7CE"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <b/>
@@ -1115,6 +1120,26 @@
         <scheme val="minor"/>
       </font>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1129,19 +1154,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G106" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:G106"/>
-  <sortState ref="A2:G106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G112" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
     <sortCondition ref="D1:D106"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1409,10 +1434,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G106"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1453,19 +1480,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1479,16 +1506,16 @@
         <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,16 +1526,16 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,16 +1549,16 @@
         <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F5" t="s">
         <v>0</v>
       </c>
       <c r="G5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,16 +1572,16 @@
         <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
         <v>0</v>
       </c>
       <c r="G6" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,19 +1589,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="D7" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1588,16 +1615,16 @@
         <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F8" t="s">
         <v>0</v>
       </c>
       <c r="G8" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1611,16 +1638,16 @@
         <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E9" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1631,16 +1658,16 @@
         <v>17</v>
       </c>
       <c r="D10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="F10" t="s">
         <v>0</v>
       </c>
       <c r="G10" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -1648,19 +1675,19 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="F11" t="s">
         <v>0</v>
       </c>
       <c r="G11" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -1674,16 +1701,16 @@
         <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1691,19 +1718,19 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E13" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
       </c>
       <c r="G13" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1711,19 +1738,19 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
       </c>
       <c r="G14" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1731,19 +1758,19 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D15" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E15" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="G15" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1751,19 +1778,19 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="D16" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E16" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
       </c>
       <c r="G16" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1777,16 +1804,16 @@
         <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F17" t="s">
         <v>0</v>
       </c>
       <c r="G17" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1800,16 +1827,16 @@
         <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
         <v>0</v>
       </c>
       <c r="G18" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1823,16 +1850,16 @@
         <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="F19" t="s">
         <v>0</v>
       </c>
       <c r="G19" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1846,16 +1873,16 @@
         <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F20" t="s">
         <v>0</v>
       </c>
       <c r="G20" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1869,16 +1896,16 @@
         <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F21" t="s">
         <v>0</v>
       </c>
       <c r="G21" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1892,16 +1919,16 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E22" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F22" t="s">
         <v>0</v>
       </c>
       <c r="G22" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1915,16 +1942,16 @@
         <v>33</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F23" t="s">
         <v>0</v>
       </c>
       <c r="G23" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1932,19 +1959,19 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D24" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="E24" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
       </c>
       <c r="G24" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,19 +1979,19 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="D25" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="E25" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
       </c>
       <c r="G25" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1972,19 +1999,19 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D26" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="E26" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
       </c>
       <c r="G26" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,16 +2025,16 @@
         <v>33</v>
       </c>
       <c r="D27" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F27" t="s">
         <v>0</v>
       </c>
       <c r="G27" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2015,19 +2042,19 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="G28" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2041,16 +2068,16 @@
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E29" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
       </c>
       <c r="G29" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2064,16 +2091,16 @@
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E30" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
       </c>
       <c r="G30" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2087,16 +2114,16 @@
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
       </c>
       <c r="G31" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2110,16 +2137,16 @@
         <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="G32" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -2127,19 +2154,19 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D33" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="E33" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
       </c>
       <c r="G33" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -2153,16 +2180,16 @@
         <v>33</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="G34" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -2170,19 +2197,19 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="D35" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E35" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
       </c>
       <c r="G35" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -2190,19 +2217,19 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D36" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E36" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F36" t="s">
         <v>0</v>
       </c>
       <c r="G36" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -2210,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="D37" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="E37" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="G37" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -2230,19 +2257,19 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="D38" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="E38" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
       </c>
       <c r="G38" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -2256,16 +2283,16 @@
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="G39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -2279,16 +2306,16 @@
         <v>33</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E40" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -2296,19 +2323,19 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D41" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E41" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
       </c>
       <c r="G41" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -2316,19 +2343,19 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D42" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E42" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -2336,19 +2363,19 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D43" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="E43" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="G43" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -2356,19 +2383,19 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D44" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E44" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
       <c r="G44" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -2376,19 +2403,19 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="D45" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="E45" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
       </c>
       <c r="G45" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -2396,22 +2423,22 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
       </c>
       <c r="G46" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -2419,19 +2446,22 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>239</v>
+        <v>42</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
       </c>
       <c r="D47" t="s">
-        <v>249</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
-        <v>259</v>
+        <v>187</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
       </c>
       <c r="G47" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -2439,22 +2469,19 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>292</v>
       </c>
       <c r="E48" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
       </c>
       <c r="G48" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -2462,22 +2489,19 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" t="s">
-        <v>33</v>
+        <v>313</v>
       </c>
       <c r="D49" t="s">
-        <v>119</v>
+        <v>293</v>
       </c>
       <c r="E49" t="s">
-        <v>192</v>
+        <v>309</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
       </c>
       <c r="G49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -2485,19 +2509,22 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>284</v>
+        <v>45</v>
+      </c>
+      <c r="C50" t="s">
+        <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>303</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>320</v>
+        <v>190</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="G50" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -2505,19 +2532,22 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>285</v>
+        <v>47</v>
+      </c>
+      <c r="C51" t="s">
+        <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
-        <v>321</v>
+        <v>192</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -2525,22 +2555,22 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E52" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
       </c>
       <c r="G52" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -2548,22 +2578,22 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -2571,7 +2601,7 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
@@ -2580,13 +2610,13 @@
         <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -2594,22 +2624,22 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
         <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E55" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -2617,22 +2647,22 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E56" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -2640,19 +2670,22 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>286</v>
+        <v>52</v>
+      </c>
+      <c r="C57" t="s">
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>126</v>
       </c>
       <c r="E57" t="s">
-        <v>322</v>
+        <v>197</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -2660,22 +2693,22 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -2683,22 +2716,22 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -2706,13 +2739,13 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E60" t="s">
         <v>201</v>
@@ -2721,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -2729,22 +2762,22 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>203</v>
+        <v>161</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2752,22 +2785,22 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>19</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>205</v>
+        <v>165</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2775,22 +2808,22 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="E63" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2798,22 +2831,22 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>101</v>
       </c>
       <c r="E64" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,22 +2854,22 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
         <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>92</v>
+        <v>131</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2844,22 +2877,22 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C66" t="s">
         <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2867,22 +2900,22 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E67" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2890,22 +2923,22 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C68" t="s">
         <v>33</v>
       </c>
       <c r="D68" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E68" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2913,22 +2946,19 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
-      </c>
-      <c r="C69" t="s">
-        <v>33</v>
+        <v>276</v>
       </c>
       <c r="D69" t="s">
-        <v>135</v>
+        <v>294</v>
       </c>
       <c r="E69" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
@@ -2936,22 +2966,22 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>106</v>
+        <v>134</v>
       </c>
       <c r="E70" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
@@ -2959,22 +2989,22 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="E71" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -2982,22 +3012,22 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="E72" t="s">
-        <v>183</v>
+        <v>206</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -3005,19 +3035,22 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>287</v>
+        <v>62</v>
+      </c>
+      <c r="C73" t="s">
+        <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>306</v>
+        <v>136</v>
       </c>
       <c r="E73" t="s">
-        <v>323</v>
+        <v>207</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -3025,22 +3058,22 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -3048,22 +3081,22 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
@@ -3071,22 +3104,22 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E76" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -3094,22 +3127,22 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E77" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -3117,22 +3150,22 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="E78" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
       </c>
       <c r="G78" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -3140,22 +3173,22 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
       </c>
       <c r="G79" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -3163,22 +3196,22 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="C80" t="s">
         <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="E80" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
       </c>
       <c r="G80" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -3186,22 +3219,22 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="E81" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -3209,22 +3242,22 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="E82" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -3232,13 +3265,13 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E83" t="s">
         <v>210</v>
@@ -3247,7 +3280,7 @@
         <v>0</v>
       </c>
       <c r="G83" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -3255,22 +3288,22 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C84" t="s">
         <v>33</v>
       </c>
       <c r="D84" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="E84" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="G84" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -3278,22 +3311,19 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>77</v>
-      </c>
-      <c r="C85" t="s">
-        <v>33</v>
+        <v>277</v>
       </c>
       <c r="D85" t="s">
-        <v>153</v>
+        <v>295</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>311</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
       </c>
       <c r="G85" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -3301,22 +3331,19 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>66</v>
-      </c>
-      <c r="C86" t="s">
-        <v>33</v>
+        <v>233</v>
       </c>
       <c r="D86" t="s">
-        <v>142</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
       </c>
       <c r="G86" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -3324,7 +3351,7 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C87" t="s">
         <v>33</v>
@@ -3333,13 +3360,13 @@
         <v>143</v>
       </c>
       <c r="E87" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
       <c r="G87" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -3347,22 +3374,19 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>70</v>
-      </c>
-      <c r="C88" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D88" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E88" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="G88" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -3370,19 +3394,22 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>288</v>
+        <v>66</v>
+      </c>
+      <c r="C89" t="s">
+        <v>33</v>
       </c>
       <c r="D89" t="s">
-        <v>307</v>
+        <v>140</v>
       </c>
       <c r="E89" t="s">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
       </c>
       <c r="G89" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -3390,19 +3417,19 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E90" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
       </c>
       <c r="G90" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -3410,22 +3437,22 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C91" t="s">
         <v>33</v>
       </c>
       <c r="D91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E91" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
       </c>
       <c r="G91" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -3433,19 +3460,19 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>278</v>
       </c>
       <c r="D92" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
-        <v>222</v>
+        <v>312</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
@@ -3453,22 +3480,22 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C93" t="s">
         <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E93" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
@@ -3476,19 +3503,22 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>241</v>
+        <v>74</v>
+      </c>
+      <c r="C94" t="s">
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>148</v>
       </c>
       <c r="E94" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
@@ -3496,7 +3526,7 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C95" t="s">
         <v>33</v>
@@ -3505,13 +3535,13 @@
         <v>150</v>
       </c>
       <c r="E95" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
       </c>
       <c r="G95" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
@@ -3519,19 +3549,22 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>289</v>
+        <v>77</v>
+      </c>
+      <c r="C96" t="s">
+        <v>33</v>
       </c>
       <c r="D96" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="E96" t="s">
-        <v>325</v>
+        <v>222</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="G96" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -3539,22 +3572,19 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>75</v>
-      </c>
-      <c r="C97" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="D97" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="E97" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="G97" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -3562,13 +3592,10 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
-      </c>
-      <c r="C98" t="s">
-        <v>33</v>
+        <v>279</v>
       </c>
       <c r="D98" t="s">
-        <v>152</v>
+        <v>297</v>
       </c>
       <c r="E98" t="s">
         <v>225</v>
@@ -3577,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="G98" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -3585,22 +3612,22 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="C99" t="s">
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="D99" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="E99" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -3608,22 +3635,22 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C100" t="s">
         <v>33</v>
       </c>
       <c r="D100" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E100" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -3631,19 +3658,22 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>242</v>
+        <v>80</v>
+      </c>
+      <c r="C101" t="s">
+        <v>83</v>
       </c>
       <c r="D101" t="s">
-        <v>252</v>
+        <v>154</v>
       </c>
       <c r="E101" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -3651,19 +3681,22 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>290</v>
+        <v>79</v>
+      </c>
+      <c r="C102" t="s">
+        <v>82</v>
       </c>
       <c r="D102" t="s">
-        <v>309</v>
+        <v>153</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -3671,22 +3704,19 @@
         <v>8</v>
       </c>
       <c r="B103" t="s">
-        <v>51</v>
-      </c>
-      <c r="C103" t="s">
-        <v>83</v>
+        <v>314</v>
       </c>
       <c r="D103" t="s">
-        <v>127</v>
+        <v>315</v>
       </c>
       <c r="E103" t="s">
-        <v>200</v>
+        <v>316</v>
       </c>
       <c r="F103" t="s">
         <v>0</v>
       </c>
       <c r="G103" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -3694,22 +3724,19 @@
         <v>8</v>
       </c>
       <c r="B104" t="s">
-        <v>80</v>
-      </c>
-      <c r="C104" t="s">
-        <v>33</v>
+        <v>317</v>
       </c>
       <c r="D104" t="s">
-        <v>156</v>
+        <v>318</v>
       </c>
       <c r="E104" t="s">
-        <v>229</v>
+        <v>319</v>
       </c>
       <c r="F104" t="s">
         <v>0</v>
       </c>
       <c r="G104" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -3717,22 +3744,19 @@
         <v>8</v>
       </c>
       <c r="B105" t="s">
-        <v>82</v>
-      </c>
-      <c r="C105" t="s">
-        <v>85</v>
+        <v>320</v>
       </c>
       <c r="D105" t="s">
-        <v>158</v>
+        <v>321</v>
       </c>
       <c r="E105" t="s">
-        <v>231</v>
+        <v>322</v>
       </c>
       <c r="F105" t="s">
         <v>0</v>
       </c>
       <c r="G105" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -3740,27 +3764,147 @@
         <v>8</v>
       </c>
       <c r="B106" t="s">
-        <v>81</v>
-      </c>
-      <c r="C106" t="s">
-        <v>84</v>
+        <v>323</v>
       </c>
       <c r="D106" t="s">
-        <v>157</v>
+        <v>324</v>
       </c>
       <c r="E106" t="s">
-        <v>230</v>
+        <v>325</v>
       </c>
       <c r="F106" t="s">
         <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>232</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>326</v>
+      </c>
+      <c r="D107" t="s">
+        <v>327</v>
+      </c>
+      <c r="E107" t="s">
+        <v>328</v>
+      </c>
+      <c r="F107" t="s">
+        <v>0</v>
+      </c>
+      <c r="G107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" t="s">
+        <v>329</v>
+      </c>
+      <c r="D108" t="s">
+        <v>330</v>
+      </c>
+      <c r="E108" t="s">
+        <v>331</v>
+      </c>
+      <c r="F108" t="s">
+        <v>0</v>
+      </c>
+      <c r="G108" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>332</v>
+      </c>
+      <c r="D109" t="s">
+        <v>333</v>
+      </c>
+      <c r="E109" t="s">
+        <v>334</v>
+      </c>
+      <c r="F109" t="s">
+        <v>0</v>
+      </c>
+      <c r="G109" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110" t="s">
+        <v>335</v>
+      </c>
+      <c r="D110" t="s">
+        <v>336</v>
+      </c>
+      <c r="E110" t="s">
+        <v>337</v>
+      </c>
+      <c r="F110" t="s">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>8</v>
+      </c>
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+      <c r="D111" t="s">
+        <v>339</v>
+      </c>
+      <c r="E111" t="s">
+        <v>340</v>
+      </c>
+      <c r="F111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>8</v>
+      </c>
+      <c r="B112" t="s">
+        <v>341</v>
+      </c>
+      <c r="D112" t="s">
+        <v>342</v>
+      </c>
+      <c r="E112" t="s">
+        <v>343</v>
+      </c>
+      <c r="F112" t="s">
+        <v>0</v>
+      </c>
+      <c r="G112" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B1 B113:B1048576">
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B106 B2:B102">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_gruyter_fullyoa.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_2A830853D38270106A6CB1D9A84071AE7AE981AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7EA6B4D-7E5D-4B0F-8839-A6BB93BDE0B3}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_2A830853D38270106A6CB1D9A84071AE7AE981AC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DFB6BDC-4F98-4474-B723-EE972AD89F94}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="341">
   <si>
     <t>Open</t>
   </si>
@@ -791,15 +791,6 @@
   </si>
   <si>
     <t>http://www.degruyter.com/view/j/crpm</t>
-  </si>
-  <si>
-    <t>2329-8766</t>
-  </si>
-  <si>
-    <t>Energy Harvesting and Systems</t>
-  </si>
-  <si>
-    <t>http://www.degruyter.com/view/j/ehs</t>
   </si>
   <si>
     <t>2169-0375</t>
@@ -1105,23 +1096,6 @@
   <dxfs count="3">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1140,6 +1114,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1154,10 +1145,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G112" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G112" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G106">
-    <sortCondition ref="D1:D106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G111" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="A1:G111" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G105">
+    <sortCondition ref="D1:D105"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
@@ -1435,10 +1426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,13 +1471,13 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
         <v>0</v>
@@ -1589,13 +1580,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="F7" t="s">
         <v>0</v>
@@ -1718,13 +1709,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F13" t="s">
         <v>0</v>
@@ -1738,13 +1729,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
         <v>0</v>
@@ -1758,13 +1749,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1778,13 +1769,13 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E16" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
@@ -1959,13 +1950,13 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D24" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F24" t="s">
         <v>0</v>
@@ -1979,13 +1970,13 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F25" t="s">
         <v>0</v>
@@ -1999,13 +1990,13 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D26" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F26" t="s">
         <v>0</v>
@@ -2042,13 +2033,16 @@
         <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>257</v>
+        <v>31</v>
+      </c>
+      <c r="C28" t="s">
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2062,16 +2056,16 @@
         <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
         <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E29" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F29" t="s">
         <v>0</v>
@@ -2085,16 +2079,16 @@
         <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E30" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="F30" t="s">
         <v>0</v>
@@ -2108,16 +2102,16 @@
         <v>8</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C31" t="s">
         <v>33</v>
       </c>
       <c r="D31" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E31" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F31" t="s">
         <v>0</v>
@@ -2131,16 +2125,13 @@
         <v>8</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
+        <v>227</v>
       </c>
       <c r="D32" t="s">
-        <v>111</v>
+        <v>236</v>
       </c>
       <c r="E32" t="s">
-        <v>182</v>
+        <v>245</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2154,13 +2145,16 @@
         <v>8</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>245</v>
+        <v>183</v>
       </c>
       <c r="F33" t="s">
         <v>0</v>
@@ -2174,16 +2168,13 @@
         <v>8</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
+        <v>268</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>285</v>
       </c>
       <c r="E34" t="s">
-        <v>183</v>
+        <v>218</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2197,13 +2188,13 @@
         <v>8</v>
       </c>
       <c r="B35" t="s">
-        <v>271</v>
+        <v>228</v>
       </c>
       <c r="D35" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="E35" t="s">
-        <v>218</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
         <v>0</v>
@@ -2217,10 +2208,10 @@
         <v>8</v>
       </c>
       <c r="B36" t="s">
-        <v>228</v>
+        <v>269</v>
       </c>
       <c r="D36" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="E36" t="s">
         <v>246</v>
@@ -2237,13 +2228,13 @@
         <v>8</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D37" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E37" t="s">
-        <v>246</v>
+        <v>303</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2257,13 +2248,16 @@
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>273</v>
+        <v>41</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
       </c>
       <c r="D38" t="s">
-        <v>290</v>
+        <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>306</v>
+        <v>186</v>
       </c>
       <c r="F38" t="s">
         <v>0</v>
@@ -2277,16 +2271,16 @@
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>33</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2300,16 +2294,13 @@
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>238</v>
       </c>
       <c r="E40" t="s">
-        <v>184</v>
+        <v>247</v>
       </c>
       <c r="F40" t="s">
         <v>0</v>
@@ -2323,13 +2314,13 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E41" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F41" t="s">
         <v>0</v>
@@ -2343,13 +2334,13 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D42" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F42" t="s">
         <v>0</v>
@@ -2363,13 +2354,13 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D43" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E43" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2383,13 +2374,13 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="D44" t="s">
-        <v>241</v>
+        <v>288</v>
       </c>
       <c r="E44" t="s">
-        <v>250</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2403,13 +2394,16 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>40</v>
+      </c>
+      <c r="C45" t="s">
+        <v>33</v>
       </c>
       <c r="D45" t="s">
-        <v>291</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
-        <v>307</v>
+        <v>185</v>
       </c>
       <c r="F45" t="s">
         <v>0</v>
@@ -2423,16 +2417,16 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C46" t="s">
         <v>33</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E46" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="F46" t="s">
         <v>0</v>
@@ -2446,16 +2440,13 @@
         <v>8</v>
       </c>
       <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" t="s">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D47" t="s">
-        <v>116</v>
+        <v>289</v>
       </c>
       <c r="E47" t="s">
-        <v>187</v>
+        <v>305</v>
       </c>
       <c r="F47" t="s">
         <v>0</v>
@@ -2469,13 +2460,13 @@
         <v>8</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="D48" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E48" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F48" t="s">
         <v>0</v>
@@ -2489,13 +2480,16 @@
         <v>8</v>
       </c>
       <c r="B49" t="s">
-        <v>313</v>
+        <v>45</v>
+      </c>
+      <c r="C49" t="s">
+        <v>33</v>
       </c>
       <c r="D49" t="s">
-        <v>293</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>309</v>
+        <v>190</v>
       </c>
       <c r="F49" t="s">
         <v>0</v>
@@ -2509,16 +2503,16 @@
         <v>8</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C50" t="s">
         <v>33</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2532,16 +2526,16 @@
         <v>8</v>
       </c>
       <c r="B51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C51" t="s">
         <v>33</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E51" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F51" t="s">
         <v>0</v>
@@ -2555,16 +2549,16 @@
         <v>8</v>
       </c>
       <c r="B52" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C52" t="s">
         <v>33</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="E52" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F52" t="s">
         <v>0</v>
@@ -2578,16 +2572,16 @@
         <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C53" t="s">
         <v>33</v>
       </c>
       <c r="D53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F53" t="s">
         <v>0</v>
@@ -2601,16 +2595,16 @@
         <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
         <v>33</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="F54" t="s">
         <v>0</v>
@@ -2624,16 +2618,16 @@
         <v>8</v>
       </c>
       <c r="B55" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C55" t="s">
         <v>33</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E55" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="F55" t="s">
         <v>0</v>
@@ -2647,16 +2641,16 @@
         <v>8</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C56" t="s">
         <v>33</v>
       </c>
       <c r="D56" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E56" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F56" t="s">
         <v>0</v>
@@ -2670,16 +2664,16 @@
         <v>8</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C57" t="s">
         <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F57" t="s">
         <v>0</v>
@@ -2693,16 +2687,16 @@
         <v>8</v>
       </c>
       <c r="B58" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C58" t="s">
         <v>33</v>
       </c>
       <c r="D58" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="F58" t="s">
         <v>0</v>
@@ -2716,16 +2710,16 @@
         <v>8</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C59" t="s">
         <v>33</v>
       </c>
       <c r="D59" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E59" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F59" t="s">
         <v>0</v>
@@ -2739,16 +2733,16 @@
         <v>8</v>
       </c>
       <c r="B60" t="s">
-        <v>56</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
         <v>33</v>
       </c>
       <c r="D60" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="F60" t="s">
         <v>0</v>
@@ -2762,16 +2756,16 @@
         <v>8</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C61" t="s">
         <v>33</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E61" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2785,16 +2779,16 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C62" t="s">
         <v>33</v>
       </c>
       <c r="D62" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -2808,16 +2802,16 @@
         <v>8</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C63" t="s">
         <v>33</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
         <v>0</v>
@@ -2831,16 +2825,16 @@
         <v>8</v>
       </c>
       <c r="B64" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
         <v>33</v>
       </c>
       <c r="D64" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
       <c r="E64" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -2854,16 +2848,16 @@
         <v>8</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="C65" t="s">
         <v>33</v>
       </c>
       <c r="D65" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="F65" t="s">
         <v>0</v>
@@ -2877,16 +2871,16 @@
         <v>8</v>
       </c>
       <c r="B66" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C66" t="s">
         <v>33</v>
       </c>
       <c r="D66" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E66" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F66" t="s">
         <v>0</v>
@@ -2900,16 +2894,16 @@
         <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C67" t="s">
         <v>33</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E67" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F67" t="s">
         <v>0</v>
@@ -2923,16 +2917,13 @@
         <v>8</v>
       </c>
       <c r="B68" t="s">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="D68" t="s">
-        <v>108</v>
+        <v>291</v>
       </c>
       <c r="E68" t="s">
-        <v>179</v>
+        <v>307</v>
       </c>
       <c r="F68" t="s">
         <v>0</v>
@@ -2946,13 +2937,16 @@
         <v>8</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>60</v>
+      </c>
+      <c r="C69" t="s">
+        <v>33</v>
       </c>
       <c r="D69" t="s">
-        <v>294</v>
+        <v>134</v>
       </c>
       <c r="E69" t="s">
-        <v>310</v>
+        <v>205</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -2966,16 +2960,16 @@
         <v>8</v>
       </c>
       <c r="B70" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="C70" t="s">
         <v>33</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>91</v>
       </c>
       <c r="E70" t="s">
-        <v>205</v>
+        <v>162</v>
       </c>
       <c r="F70" t="s">
         <v>0</v>
@@ -2989,16 +2983,16 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="C71" t="s">
         <v>33</v>
       </c>
       <c r="D71" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="E71" t="s">
-        <v>162</v>
+        <v>206</v>
       </c>
       <c r="F71" t="s">
         <v>0</v>
@@ -3012,16 +3006,16 @@
         <v>8</v>
       </c>
       <c r="B72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C72" t="s">
         <v>33</v>
       </c>
       <c r="D72" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F72" t="s">
         <v>0</v>
@@ -3035,16 +3029,16 @@
         <v>8</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="C73" t="s">
         <v>33</v>
       </c>
       <c r="D73" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="E73" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="F73" t="s">
         <v>0</v>
@@ -3058,16 +3052,16 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
         <v>33</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E74" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3081,16 +3075,16 @@
         <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="C75" t="s">
         <v>33</v>
       </c>
       <c r="D75" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="E75" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="F75" t="s">
         <v>0</v>
@@ -3104,16 +3098,16 @@
         <v>8</v>
       </c>
       <c r="B76" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C76" t="s">
         <v>33</v>
       </c>
       <c r="D76" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E76" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="F76" t="s">
         <v>0</v>
@@ -3127,16 +3121,16 @@
         <v>8</v>
       </c>
       <c r="B77" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C77" t="s">
         <v>33</v>
       </c>
       <c r="D77" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E77" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F77" t="s">
         <v>0</v>
@@ -3150,16 +3144,16 @@
         <v>8</v>
       </c>
       <c r="B78" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C78" t="s">
         <v>33</v>
       </c>
       <c r="D78" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="F78" t="s">
         <v>0</v>
@@ -3173,16 +3167,16 @@
         <v>8</v>
       </c>
       <c r="B79" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C79" t="s">
         <v>33</v>
       </c>
       <c r="D79" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="E79" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="F79" t="s">
         <v>0</v>
@@ -3196,16 +3190,16 @@
         <v>8</v>
       </c>
       <c r="B80" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C80" t="s">
         <v>33</v>
       </c>
       <c r="D80" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E80" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="F80" t="s">
         <v>0</v>
@@ -3219,16 +3213,16 @@
         <v>8</v>
       </c>
       <c r="B81" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C81" t="s">
         <v>33</v>
       </c>
       <c r="D81" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="E81" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="F81" t="s">
         <v>0</v>
@@ -3242,16 +3236,16 @@
         <v>8</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C82" t="s">
         <v>33</v>
       </c>
       <c r="D82" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F82" t="s">
         <v>0</v>
@@ -3265,16 +3259,16 @@
         <v>8</v>
       </c>
       <c r="B83" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C83" t="s">
         <v>33</v>
       </c>
       <c r="D83" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E83" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="F83" t="s">
         <v>0</v>
@@ -3288,16 +3282,13 @@
         <v>8</v>
       </c>
       <c r="B84" t="s">
-        <v>68</v>
-      </c>
-      <c r="C84" t="s">
-        <v>33</v>
+        <v>274</v>
       </c>
       <c r="D84" t="s">
-        <v>142</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>213</v>
+        <v>308</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3311,13 +3302,13 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>233</v>
       </c>
       <c r="D85" t="s">
-        <v>295</v>
+        <v>242</v>
       </c>
       <c r="E85" t="s">
-        <v>311</v>
+        <v>251</v>
       </c>
       <c r="F85" t="s">
         <v>0</v>
@@ -3331,13 +3322,16 @@
         <v>8</v>
       </c>
       <c r="B86" t="s">
-        <v>233</v>
+        <v>69</v>
+      </c>
+      <c r="C86" t="s">
+        <v>33</v>
       </c>
       <c r="D86" t="s">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="E86" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="F86" t="s">
         <v>0</v>
@@ -3351,16 +3345,13 @@
         <v>8</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="D87" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E87" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3374,13 +3365,16 @@
         <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>71</v>
+        <v>66</v>
+      </c>
+      <c r="C88" t="s">
+        <v>33</v>
       </c>
       <c r="D88" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E88" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -3394,16 +3388,13 @@
         <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>66</v>
-      </c>
-      <c r="C89" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D89" t="s">
-        <v>140</v>
+        <v>243</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>252</v>
       </c>
       <c r="F89" t="s">
         <v>0</v>
@@ -3417,13 +3408,16 @@
         <v>8</v>
       </c>
       <c r="B90" t="s">
-        <v>234</v>
+        <v>72</v>
+      </c>
+      <c r="C90" t="s">
+        <v>33</v>
       </c>
       <c r="D90" t="s">
-        <v>243</v>
+        <v>146</v>
       </c>
       <c r="E90" t="s">
-        <v>252</v>
+        <v>217</v>
       </c>
       <c r="F90" t="s">
         <v>0</v>
@@ -3437,16 +3431,13 @@
         <v>8</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C91" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="D91" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="E91" t="s">
-        <v>217</v>
+        <v>309</v>
       </c>
       <c r="F91" t="s">
         <v>0</v>
@@ -3460,13 +3451,16 @@
         <v>8</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>73</v>
+      </c>
+      <c r="C92" t="s">
+        <v>33</v>
       </c>
       <c r="D92" t="s">
-        <v>296</v>
+        <v>147</v>
       </c>
       <c r="E92" t="s">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="F92" t="s">
         <v>0</v>
@@ -3480,16 +3474,16 @@
         <v>8</v>
       </c>
       <c r="B93" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C93" t="s">
         <v>33</v>
       </c>
       <c r="D93" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F93" t="s">
         <v>0</v>
@@ -3503,16 +3497,16 @@
         <v>8</v>
       </c>
       <c r="B94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C94" t="s">
         <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E94" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F94" t="s">
         <v>0</v>
@@ -3526,16 +3520,16 @@
         <v>8</v>
       </c>
       <c r="B95" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C95" t="s">
         <v>33</v>
       </c>
       <c r="D95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F95" t="s">
         <v>0</v>
@@ -3549,16 +3543,13 @@
         <v>8</v>
       </c>
       <c r="B96" t="s">
-        <v>77</v>
-      </c>
-      <c r="C96" t="s">
-        <v>33</v>
+        <v>235</v>
       </c>
       <c r="D96" t="s">
-        <v>151</v>
+        <v>244</v>
       </c>
       <c r="E96" t="s">
-        <v>222</v>
+        <v>253</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3572,13 +3563,13 @@
         <v>8</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>276</v>
       </c>
       <c r="D97" t="s">
-        <v>244</v>
+        <v>294</v>
       </c>
       <c r="E97" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3592,13 +3583,16 @@
         <v>8</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>49</v>
+      </c>
+      <c r="C98" t="s">
+        <v>81</v>
       </c>
       <c r="D98" t="s">
-        <v>297</v>
+        <v>123</v>
       </c>
       <c r="E98" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="F98" t="s">
         <v>0</v>
@@ -3612,16 +3606,16 @@
         <v>8</v>
       </c>
       <c r="B99" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
       <c r="D99" t="s">
-        <v>123</v>
+        <v>152</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>223</v>
       </c>
       <c r="F99" t="s">
         <v>0</v>
@@ -3635,16 +3629,16 @@
         <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C100" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E100" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F100" t="s">
         <v>0</v>
@@ -3658,16 +3652,16 @@
         <v>8</v>
       </c>
       <c r="B101" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D101" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E101" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3681,16 +3675,13 @@
         <v>8</v>
       </c>
       <c r="B102" t="s">
-        <v>79</v>
-      </c>
-      <c r="C102" t="s">
-        <v>82</v>
+        <v>311</v>
       </c>
       <c r="D102" t="s">
-        <v>153</v>
+        <v>312</v>
       </c>
       <c r="E102" t="s">
-        <v>224</v>
+        <v>313</v>
       </c>
       <c r="F102" t="s">
         <v>0</v>
@@ -3879,32 +3870,12 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>8</v>
-      </c>
-      <c r="B112" t="s">
-        <v>341</v>
-      </c>
-      <c r="D112" t="s">
-        <v>342</v>
-      </c>
-      <c r="E112" t="s">
-        <v>343</v>
-      </c>
-      <c r="F112" t="s">
-        <v>0</v>
-      </c>
-      <c r="G112" t="s">
-        <v>226</v>
-      </c>
-    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1 B113:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+  <conditionalFormatting sqref="B112:B1048576 B1">
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B106 B2:B102">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  <conditionalFormatting sqref="B105 B2:B101">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
